--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Eng.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N2">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O2">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P2">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q2">
-        <v>308.97893995024</v>
+        <v>244.1916853779715</v>
       </c>
       <c r="R2">
-        <v>2780.81045955216</v>
+        <v>2197.725168401744</v>
       </c>
       <c r="S2">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="T2">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>120.936512</v>
       </c>
       <c r="O3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q3">
         <v>72.86826625967645</v>
@@ -632,10 +632,10 @@
         <v>655.8143963370881</v>
       </c>
       <c r="S3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="T3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N4">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q4">
-        <v>20.08648855031867</v>
+        <v>25.72756183793411</v>
       </c>
       <c r="R4">
-        <v>180.778396952868</v>
+        <v>231.548056541407</v>
       </c>
       <c r="S4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="T4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
     </row>
   </sheetData>
